--- a/job_data.xlsx
+++ b/job_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/windy/Documents/dev_python/Recommend-Job/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A359F33C-149D-1843-80AF-91A0AA61DBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93E40D4-291C-3345-B3F9-277C0213B9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11828,9 +11828,6 @@
     <t>tags</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>images</t>
   </si>
   <si>
@@ -11856,6 +11853,9 @@
   </si>
   <si>
     <t>requirement</t>
+  </si>
+  <si>
+    <t>categoryId</t>
   </si>
 </sst>
 </file>
@@ -12226,7 +12226,7 @@
   <dimension ref="A1:P483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12248,37 +12248,37 @@
         <v>2122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2124</v>
+        <v>2133</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2123</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2125</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2126</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2127</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2128</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2129</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>2130</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>2131</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>2132</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>2133</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
